--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.51</v>
+        <v>4.06</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.09</v>
+        <v>3.82</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:57</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.39</v>
+        <v>2.49</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.42</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.03</v>
+        <v>2.85</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>2.22</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:52</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.52</v>
+        <v>3.51</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.12</v>
+        <v>3.09</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.97</v>
+        <v>2.04</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.17</v>
+        <v>3.64</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3.92</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.23</v>
+        <v>3.07</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.13</v>
+        <v>2.58</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:55</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.24</v>
+        <v>2.97</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="N23" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>01/08/2023 13:11</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
         <v>3.4</v>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>01/08/2023 06:12</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>3.23</v>
-      </c>
       <c r="Q23" t="inlineStr">
         <is>
           <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.85</v>
+        <v>2.23</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.88</v>
+        <v>3.13</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:55</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-taborsko/dbp6xp9p/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-lisen/G42wsQ0T/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:52</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.56</v>
+        <v>3.8</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.77</v>
+        <v>4.25</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.06</v>
+        <v>4.52</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.82</v>
+        <v>6.12</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:57</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-dukla-prague/zkqAy4Oj/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.64</v>
+        <v>3.41</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.92</v>
+        <v>3.42</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:50</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.58</v>
+        <v>2.89</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.69</v>
+        <v>2.34</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:54</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.41</v>
+        <v>2.66</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.16</v>
+        <v>2.73</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:52</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.21</v>
+        <v>2.44</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.21</v>
+        <v>2.52</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>05/08/2023 16:56</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.73</v>
+        <v>2.16</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.33</v>
+        <v>3.28</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:52</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.44</v>
+        <v>3.21</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>05/08/2023 03:12</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.52</v>
+        <v>3.21</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-brno/vsnzDQpc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-pribram/ARNCePFM/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.34</v>
+        <v>2.69</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:54</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.66</v>
+        <v>2.41</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 03:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:56</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-mfk-vyskov/2P2ils8d/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-jihlava/hjDHfqVS/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Kromeriz</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>12/08/2023 16:55</t>
+          <t>12/08/2023 16:56</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.96</v>
+        <v>4.95</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.08</v>
+        <v>4.96</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.78</v>
+        <v>7.33</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.63</v>
+        <v>8.59</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-kromeriz/CfprB4F9/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-chrudim/ppxe82aS/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Chrudim</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,48 +3816,48 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>12/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>10/08/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>12/08/2023 16:56</t>
         </is>
       </c>
-      <c r="N37" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="R37" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>10/08/2023 09:12</t>
         </is>
       </c>
-      <c r="P37" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="Q37" t="inlineStr">
+      <c r="T37" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>12/08/2023 16:56</t>
         </is>
       </c>
-      <c r="R37" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>10/08/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:56</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-chrudim/ppxe82aS/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-kromeriz/CfprB4F9/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.59</v>
+        <v>2.37</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.68</v>
+        <v>2.63</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.04</v>
+        <v>3.59</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.63</v>
+        <v>2.7</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.62</v>
+        <v>2.51</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.37</v>
+        <v>1.52</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.63</v>
+        <v>1.37</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.25</v>
+        <v>4.18</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.59</v>
+        <v>5.03</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.7</v>
+        <v>5.14</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.51</v>
+        <v>7.88</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-varnsdorf/n9S8FvOh/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.18</v>
+        <v>3.9</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>5.03</v>
+        <v>4.04</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>5.14</v>
+        <v>4.63</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>7.88</v>
+        <v>4.62</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-varnsdorf/n9S8FvOh/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,282 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-chrudim/YJ3wVJNu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45191.6875</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Taborsko</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Pribram</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>20/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:22</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>20/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:22</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>20/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:22</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-pribram/G2abQexB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45192.42708333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Chrudim</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Zizkov</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:06</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:14</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:06</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/chrudim-zizkov/lGc6OZ6N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45192.4375</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Prostejov</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Varnsdorf</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:28</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:28</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:28</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/prostejov-varnsdorf/Wz1VIDUp/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_fnl_2023-2024.xlsx
+++ b/2023/czech-republic_fnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.53</v>
+        <v>4.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.51</v>
+        <v>4.52</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>01/08/2023 06:12</t>
+          <t>01/08/2023 13:11</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.09</v>
+        <v>6.12</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>02/08/2023 17:51</t>
+          <t>02/08/2023 17:54</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Pribram</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.64</v>
+        <v>3.41</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.92</v>
+        <v>3.42</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:50</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.07</v>
+        <v>3.03</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.58</v>
+        <v>2.89</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>02/08/2023 17:56</t>
+          <t>02/08/2023 17:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.52</v>
+        <v>2.22</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:52</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.52</v>
+        <v>3.51</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>01/08/2023 13:11</t>
+          <t>01/08/2023 06:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.12</v>
+        <v>3.09</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>02/08/2023 17:54</t>
+          <t>02/08/2023 17:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-kromeriz/2eyda7Gc/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/jihlava-sigma-olomouc/OAP4cooA/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.41</v>
+        <v>3.64</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.42</v>
+        <v>3.92</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:50</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.89</v>
+        <v>2.58</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>02/08/2023 17:58</t>
+          <t>02/08/2023 17:56</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/pribram-opava/xE3Zs6oN/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/varnsdorf-vlasim/pKQ0bRV3/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.09</v>
+        <v>1.49</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.67</v>
+        <v>1.6</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>14/08/2023 17:29</t>
+          <t>14/08/2023 17:26</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.31</v>
+        <v>4.22</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.81</v>
+        <v>4.02</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>14/08/2023 17:29</t>
+          <t>14/08/2023 17:26</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>5.47</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.38</v>
+        <v>5.42</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>14/08/2023 17:29</t>
+          <t>14/08/2023 17:26</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-dukla-prague/OUmnAOUF/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-sigma-olomouc/GSSQ2tNk/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sigma Olomouc B</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.49</v>
+        <v>3.09</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.6</v>
+        <v>2.67</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14/08/2023 17:26</t>
+          <t>14/08/2023 17:29</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.22</v>
+        <v>3.31</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.02</v>
+        <v>3.81</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>14/08/2023 17:26</t>
+          <t>14/08/2023 17:29</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>5.47</v>
+        <v>2.1</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.42</v>
+        <v>2.38</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>14/08/2023 17:26</t>
+          <t>14/08/2023 17:29</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/mfk-vyskov-sigma-olomouc/GSSQ2tNk/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/zizkov-dukla-prague/OUmnAOUF/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Pribram</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.78</v>
+        <v>2.51</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 16:52</t>
+          <t>19/08/2023 16:16</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.36</v>
+        <v>3.21</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.06</v>
+        <v>3.42</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 16:52</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.98</v>
+        <v>2.57</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.05</v>
+        <v>2.72</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 16:52</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-pribram/2c2k5Zrl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-mfk-vyskov/G06g4gbf/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Lisen</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Vyskov</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.51</v>
+        <v>1.98</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/08/2023 16:16</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.57</v>
+        <v>3.53</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.72</v>
+        <v>3.62</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-mfk-vyskov/G06g4gbf/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-varnsdorf/QcAHP3U2/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lisen</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.88</v>
+        <v>2.64</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.98</v>
+        <v>2.61</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.6</v>
+        <v>3.46</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.53</v>
+        <v>2.41</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.62</v>
+        <v>2.6</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/lisen-varnsdorf/QcAHP3U2/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-opava/4l9LONq9/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Jihlava</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Opava</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.64</v>
+        <v>1.64</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.61</v>
+        <v>1.52</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.35</v>
+        <v>3.88</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.46</v>
+        <v>4.54</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.41</v>
+        <v>4.29</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.6</v>
+        <v>5.57</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-opava/4l9LONq9/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-jihlava/8z3o6FTs/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Pribram</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Jihlava</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.64</v>
+        <v>2.18</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:52</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.88</v>
+        <v>3.36</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.54</v>
+        <v>4.06</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:52</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.29</v>
+        <v>2.98</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>5.57</v>
+        <v>4.05</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/08/2023 16:54</t>
+          <t>19/08/2023 16:52</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-jihlava/8z3o6FTs/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-pribram/2c2k5Zrl/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Kromeriz</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Zizkov</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.37</v>
+        <v>1.87</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.63</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.25</v>
+        <v>3.57</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.59</v>
+        <v>4.07</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.7</v>
+        <v>3.61</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.51</v>
+        <v>3.98</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-jihlava/MRbjcc8O/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Brno</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Varnsdorf</t>
+          <t>Prostejov</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.18</v>
+        <v>3.9</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>5.03</v>
+        <v>4.04</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.14</v>
+        <v>4.63</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>7.88</v>
+        <v>4.62</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:51</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-varnsdorf/n9S8FvOh/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Taborsko</t>
+          <t>Kromeriz</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Prostejov</t>
+          <t>Zizkov</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.59</v>
+        <v>2.37</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.68</v>
+        <v>2.63</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.04</v>
+        <v>3.59</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.63</v>
+        <v>2.7</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.62</v>
+        <v>2.51</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>02/09/2023 16:51</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/taborsko-prostejov/lYnYLtoP/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/kromeriz-zizkov/n96w0aO5/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vlasim</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Jihlava</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.57</v>
+        <v>4.18</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.07</v>
+        <v>5.03</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.61</v>
+        <v>5.14</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.98</v>
+        <v>7.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>02/09/2023 16:55</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-jihlava/MRbjcc8O/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-varnsdorf/n9S8FvOh/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,466 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/fnl/prostejov-varnsdorf/Wz1VIDUp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Kromeriz</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/dukla-prague-kromeriz/Kz6kSH7b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45192.6875</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Vlasim</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Opava</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/vlasim-opava/2aefRyN4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Vyskov</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:52</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/brno-mfk-vyskov/URE3NgMT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45193.42708333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc B</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Lisen</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>21/09/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:11</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>21/09/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>21/09/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:11</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sigma-olomouc-lisen/tp7oTchh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>fnl</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45193.4375</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sparta Prague B</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Jihlava</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:26</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:29</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:26</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/fnl/sparta-prague-jihlava/APb2PFiH/</t>
         </is>
       </c>
     </row>
